--- a/BalanceSheet/TECH_bal.xlsx
+++ b/BalanceSheet/TECH_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1382000.0</v>
+        <v>107000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-1968000.0</v>
+        <v>106000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-4852000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-5628000.0</v>
+        <v>100000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-3661000.0</v>
+        <v>95000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>90855000.0</v>
@@ -1884,19 +1884,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1706000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>6918000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>312000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2916000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>5659000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>14106000.0</v>
@@ -3448,19 +3448,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>668000.0</v>
+        <v>105000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-452000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>4489000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-6164000.0</v>
+        <v>96000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>15412000.0</v>
+        <v>105000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>88530000.0</v>
